--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H2">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I2">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J2">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02042033333333334</v>
+        <v>0.0003833333333333333</v>
       </c>
       <c r="N2">
-        <v>0.061261</v>
+        <v>0.00115</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="Q2">
-        <v>0.6450400010343333</v>
+        <v>0.007769644950000001</v>
       </c>
       <c r="R2">
-        <v>5.805360009308999</v>
+        <v>0.06992680455000001</v>
       </c>
       <c r="S2">
-        <v>0.1477436777967832</v>
+        <v>0.0005071316120486842</v>
       </c>
       <c r="T2">
-        <v>0.1477436777967832</v>
+        <v>0.0005071316120486841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>127.7410203333333</v>
+        <v>20.268639</v>
       </c>
       <c r="H3">
-        <v>383.223061</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I3">
-        <v>0.5974691231118839</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J3">
-        <v>0.5974691231118839</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.02042033333333334</v>
+        <v>0.07171066666666667</v>
       </c>
       <c r="N3">
-        <v>0.061261</v>
+        <v>0.215132</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9946828677374909</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9946828677374908</v>
       </c>
       <c r="Q3">
-        <v>2.608514215546778</v>
+        <v>1.453477615116</v>
       </c>
       <c r="R3">
-        <v>23.476627939921</v>
+        <v>13.081298536044</v>
       </c>
       <c r="S3">
-        <v>0.5974691231118839</v>
+        <v>0.09486977214196307</v>
       </c>
       <c r="T3">
-        <v>0.5974691231118839</v>
+        <v>0.09486977214196306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.62302866666666</v>
+        <v>127.7410203333333</v>
       </c>
       <c r="H4">
-        <v>73.86908599999998</v>
+        <v>383.223061</v>
       </c>
       <c r="I4">
-        <v>0.1151666027674058</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J4">
-        <v>0.1151666027674058</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02042033333333334</v>
+        <v>0.0003833333333333333</v>
       </c>
       <c r="N4">
-        <v>0.061261</v>
+        <v>0.00115</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="Q4">
-        <v>0.5028104530495554</v>
+        <v>0.04896739112777778</v>
       </c>
       <c r="R4">
-        <v>4.525294077445999</v>
+        <v>0.44070652015</v>
       </c>
       <c r="S4">
-        <v>0.1151666027674058</v>
+        <v>0.003196145018241584</v>
       </c>
       <c r="T4">
-        <v>0.1151666027674058</v>
+        <v>0.003196145018241583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.85137933333333</v>
+        <v>127.7410203333333</v>
       </c>
       <c r="H5">
-        <v>89.55413799999999</v>
+        <v>383.223061</v>
       </c>
       <c r="I5">
-        <v>0.139620596323927</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J5">
-        <v>0.139620596323927</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.07171066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.215132</v>
+      </c>
+      <c r="O5">
+        <v>0.9946828677374909</v>
+      </c>
+      <c r="P5">
+        <v>0.9946828677374908</v>
+      </c>
+      <c r="Q5">
+        <v>9.160393728783557</v>
+      </c>
+      <c r="R5">
+        <v>82.44354355905202</v>
+      </c>
+      <c r="S5">
+        <v>0.5979070174472596</v>
+      </c>
+      <c r="T5">
+        <v>0.5979070174472594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>42.02733833333333</v>
+      </c>
+      <c r="H6">
+        <v>126.082015</v>
+      </c>
+      <c r="I6">
+        <v>0.1977654939365007</v>
+      </c>
+      <c r="J6">
+        <v>0.1977654939365007</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.02042033333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.061261</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.6095751164464445</v>
-      </c>
-      <c r="R5">
-        <v>5.486176048018</v>
-      </c>
-      <c r="S5">
-        <v>0.139620596323927</v>
-      </c>
-      <c r="T5">
-        <v>0.139620596323927</v>
+      <c r="M6">
+        <v>0.0003833333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.00115</v>
+      </c>
+      <c r="O6">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="P6">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="Q6">
+        <v>0.01611047969444444</v>
+      </c>
+      <c r="R6">
+        <v>0.14499431725</v>
+      </c>
+      <c r="S6">
+        <v>0.001051545288220822</v>
+      </c>
+      <c r="T6">
+        <v>0.001051545288220822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>42.02733833333333</v>
+      </c>
+      <c r="H7">
+        <v>126.082015</v>
+      </c>
+      <c r="I7">
+        <v>0.1977654939365007</v>
+      </c>
+      <c r="J7">
+        <v>0.1977654939365007</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.07171066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.215132</v>
+      </c>
+      <c r="O7">
+        <v>0.9946828677374909</v>
+      </c>
+      <c r="P7">
+        <v>0.9946828677374908</v>
+      </c>
+      <c r="Q7">
+        <v>3.013808450108888</v>
+      </c>
+      <c r="R7">
+        <v>27.12427605098</v>
+      </c>
+      <c r="S7">
+        <v>0.1967139486482798</v>
+      </c>
+      <c r="T7">
+        <v>0.1967139486482798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.47397933333333</v>
+      </c>
+      <c r="H8">
+        <v>67.421938</v>
+      </c>
+      <c r="I8">
+        <v>0.1057544398439867</v>
+      </c>
+      <c r="J8">
+        <v>0.1057544398439867</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0003833333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.00115</v>
+      </c>
+      <c r="O8">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="P8">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="Q8">
+        <v>0.008615025411111111</v>
+      </c>
+      <c r="R8">
+        <v>0.0775352287</v>
+      </c>
+      <c r="S8">
+        <v>0.0005623103439980427</v>
+      </c>
+      <c r="T8">
+        <v>0.0005623103439980426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.47397933333333</v>
+      </c>
+      <c r="H9">
+        <v>67.421938</v>
+      </c>
+      <c r="I9">
+        <v>0.1057544398439867</v>
+      </c>
+      <c r="J9">
+        <v>0.1057544398439867</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.07171066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.215132</v>
+      </c>
+      <c r="O9">
+        <v>0.9946828677374909</v>
+      </c>
+      <c r="P9">
+        <v>0.9946828677374908</v>
+      </c>
+      <c r="Q9">
+        <v>1.611624040646222</v>
+      </c>
+      <c r="R9">
+        <v>14.504616365816</v>
+      </c>
+      <c r="S9">
+        <v>0.1051921294999886</v>
+      </c>
+      <c r="T9">
+        <v>0.1051921294999886</v>
       </c>
     </row>
   </sheetData>
